--- a/results/mp/logistic/corona/confidence/126/stop-words-desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-desired-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,31 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>drop</t>
   </si>
   <si>
     <t>panic</t>
@@ -73,30 +76,30 @@
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -115,108 +118,111 @@
     <t>special</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
@@ -227,9 +233,6 @@
   </si>
   <si>
     <t>shopping</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8356164383561644</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -706,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -777,16 +780,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>0.9666666666666667</v>
+        <v>0.95</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7692307692307693</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -856,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>346</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>346</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>0.9086161879895561</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L9">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6349206349206349</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10">
-        <v>0.8936170212765957</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,49 +1059,49 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6333333333333333</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C11">
+        <v>114</v>
+      </c>
+      <c r="D11">
+        <v>114</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>75</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11">
+        <v>0.88125</v>
+      </c>
+      <c r="L11">
+        <v>141</v>
+      </c>
+      <c r="M11">
+        <v>141</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>19</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>11</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
-      </c>
-      <c r="M11">
-        <v>100</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5310077519379846</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C12">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>0.8828125</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L12">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M12">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4509803921568628</v>
+        <v>0.5736434108527132</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>0.86875</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L13">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="M13">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1198,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1206,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.423728813559322</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1224,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>0.8679245283018868</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L14">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1256,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1274,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>0.8636363636363636</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1298,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1306,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3733333333333334</v>
+        <v>0.348993288590604</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1324,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8515625</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1348,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3624161073825503</v>
+        <v>0.32</v>
       </c>
       <c r="C17">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1374,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>0.8450704225352113</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L17">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="M17">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1398,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1406,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1111111111111111</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1424,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>0.8372093023255814</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1448,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1456,13 +1459,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.08042895442359249</v>
+        <v>0.0938337801608579</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1474,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1498,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1506,37 +1509,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06333333333333334</v>
+        <v>0.0203751617076326</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>281</v>
+        <v>3029</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>0.8214285714285714</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1548,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1556,37 +1559,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01064516129032258</v>
+        <v>0.01275389702409069</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E21">
-        <v>0.17</v>
+        <v>0.49</v>
       </c>
       <c r="F21">
-        <v>0.83</v>
+        <v>0.51</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>3067</v>
+        <v>2090</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>0.8170731707317073</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1598,21 +1601,45 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.006986344871387742</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>74</v>
+      </c>
+      <c r="E22">
+        <v>0.7</v>
+      </c>
+      <c r="F22">
+        <v>0.3</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>3127</v>
+      </c>
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>0.8148148148148148</v>
+        <v>0.8</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1624,21 +1651,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>0.8095238095238095</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L23">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1650,21 +1677,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24">
         <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1676,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1702,21 +1729,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>0.7428571428571429</v>
+        <v>0.78</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1728,21 +1755,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1754,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>0.725</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1780,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>0.7142857142857143</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L29">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="M29">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1803,24 +1830,24 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K30">
-        <v>0.711764705882353</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L30">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1832,47 +1859,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K31">
-        <v>0.6903765690376569</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L31">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M31">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K32">
-        <v>0.648936170212766</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L32">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="M32">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1884,21 +1911,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>0.6461538461538462</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1910,21 +1937,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K34">
-        <v>0.6428571428571429</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L34">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1936,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K35">
-        <v>0.6404494382022472</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L35">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1962,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K36">
-        <v>0.6363636363636364</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1988,21 +2015,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K37">
-        <v>0.6078431372549019</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2014,12 +2041,12 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K38">
         <v>0.5714285714285714</v>
@@ -2045,16 +2072,16 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K39">
-        <v>0.5342465753424658</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2066,21 +2093,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K40">
-        <v>0.4487179487179487</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2092,47 +2119,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K41">
-        <v>0.4385964912280702</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L41">
+        <v>26</v>
+      </c>
+      <c r="M41">
+        <v>26</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>25</v>
-      </c>
-      <c r="M41">
-        <v>25</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>32</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K42">
-        <v>0.3728813559322034</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2144,21 +2171,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K43">
-        <v>0.359375</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2170,21 +2197,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K44">
-        <v>0.06168831168831169</v>
+        <v>0.328125</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2196,21 +2223,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>289</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K45">
-        <v>0.04807692307692308</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2222,33 +2249,85 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>396</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K46">
-        <v>0.01160966426106056</v>
+        <v>0.04567307692307692</v>
       </c>
       <c r="L46">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="N46">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>3150</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47">
+        <v>0.01635734507706826</v>
+      </c>
+      <c r="L47">
+        <v>52</v>
+      </c>
+      <c r="M47">
+        <v>74</v>
+      </c>
+      <c r="N47">
+        <v>0.7</v>
+      </c>
+      <c r="O47">
+        <v>0.3</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48">
+        <v>0.01228733459357278</v>
+      </c>
+      <c r="L48">
+        <v>26</v>
+      </c>
+      <c r="M48">
+        <v>53</v>
+      </c>
+      <c r="N48">
+        <v>0.49</v>
+      </c>
+      <c r="O48">
+        <v>0.51</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2090</v>
       </c>
     </row>
   </sheetData>
